--- a/uploads/Empregados (1).xlsx
+++ b/uploads/Empregados (1).xlsx
@@ -204,16 +204,6 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">GABRIEL ARGOLO MORBECK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
       <t xml:space="preserve">GABRIEL FARIAS DE LIMA</t>
     </r>
   </si>
@@ -314,6 +304,16 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve">JOAO LUCAS WESTPHAL GARCIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve">JULIO CESAR DE PAULA MUNIZ JUNIOR</t>
     </r>
   </si>
@@ -384,7 +384,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">LUIS ALBERTO QUEIROZ ROCHA</t>
+      <t xml:space="preserve">MANUELLA DA SILVA TRINDADE</t>
     </r>
   </si>
   <si>
@@ -414,6 +414,16 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve">MARCOS VINICIUS DE OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve">MATHEUS DA SILVA FORTES</t>
     </r>
   </si>
@@ -514,17 +524,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">WENDER JADSON SILVA DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">451 YAGO ALVES SANTOS                 08/05/2001 10/07/2024      1</t>
+      <t xml:space="preserve">367 WENDER JADSON SILVA DOS SANTOS        20/11/1992 24/11/2022      9</t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">23
+      <t xml:space="preserve">31
 </t>
     </r>
     <r>
@@ -1440,36 +1440,36 @@
     </row>
     <row r="19" spans="1:6" ht="15.00" customHeight="1">
       <c r="A19" s="1">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>35662.000000</v>
+        <v>35365.000000</v>
       </c>
       <c r="D19" s="4">
-        <v>45378.000000</v>
+        <v>45398.000000</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.00" customHeight="1">
       <c r="A20" s="1">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>35365.000000</v>
+        <v>35525.000000</v>
       </c>
       <c r="D20" s="4">
-        <v>45398.000000</v>
+        <v>45492.000000</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1480,136 +1480,136 @@
     </row>
     <row r="21" spans="1:6" ht="15.00" customHeight="1">
       <c r="A21" s="1">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>35525.000000</v>
+        <v>34855.000000</v>
       </c>
       <c r="D21" s="4">
-        <v>45492.000000</v>
+        <v>45293.000000</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.00" customHeight="1">
       <c r="A22" s="1">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>34855.000000</v>
+        <v>29230.000000</v>
       </c>
       <c r="D22" s="4">
-        <v>45293.000000</v>
+        <v>45512.000000</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="6">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.00" customHeight="1">
       <c r="A23" s="1">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>29230.000000</v>
+        <v>29056.000000</v>
       </c>
       <c r="D23" s="4">
-        <v>45512.000000</v>
+        <v>45505.000000</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.00" customHeight="1">
       <c r="A24" s="1">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>29056.000000</v>
+        <v>37218.000000</v>
       </c>
       <c r="D24" s="4">
-        <v>45505.000000</v>
+        <v>45484.000000</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.00" customHeight="1">
       <c r="A25" s="1">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>37218.000000</v>
+        <v>39359.000000</v>
       </c>
       <c r="D25" s="4">
-        <v>45484.000000</v>
+        <v>45414.000000</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.00" customHeight="1">
       <c r="A26" s="1">
-        <v>441</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>39359.000000</v>
+        <v>36942.000000</v>
       </c>
       <c r="D26" s="4">
-        <v>45414.000000</v>
+        <v>44245.000000</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.00" customHeight="1">
       <c r="A27" s="1">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>36942.000000</v>
+        <v>37005.000000</v>
       </c>
       <c r="D27" s="4">
-        <v>44245.000000</v>
+        <v>45120.000000</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1620,42 +1620,42 @@
     </row>
     <row r="28" spans="1:6" ht="15.00" customHeight="1">
       <c r="A28" s="1">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>37005.000000</v>
+        <v>37517.000000</v>
       </c>
       <c r="D28" s="4">
-        <v>45120.000000</v>
+        <v>45475.000000</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.00" customHeight="1">
       <c r="A29" s="1">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>37517.000000</v>
+        <v>38116.000000</v>
       </c>
       <c r="D29" s="4">
-        <v>45475.000000</v>
+        <v>45519.000000</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.00" customHeight="1">
@@ -1672,7 +1672,7 @@
         <v>43452.000000</v>
       </c>
       <c r="E30" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="6">
         <v>36</v>
@@ -1800,22 +1800,22 @@
     </row>
     <row r="37" spans="1:6" ht="15.00" customHeight="1">
       <c r="A37" s="1">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>31367.000000</v>
+        <v>38095.000000</v>
       </c>
       <c r="D37" s="4">
-        <v>45392.000000</v>
+        <v>45523.000000</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.00" customHeight="1">
@@ -1860,222 +1860,222 @@
     </row>
     <row r="40" spans="1:6" ht="15.00" customHeight="1">
       <c r="A40" s="1">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="3">
-        <v>34545.000000</v>
+        <v>37221.000000</v>
       </c>
       <c r="D40" s="4">
-        <v>45322.000000</v>
+        <v>45517.000000</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="6">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.00" customHeight="1">
       <c r="A41" s="1">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="3">
-        <v>25588.000000</v>
+        <v>34545.000000</v>
       </c>
       <c r="D41" s="4">
-        <v>41641.000000</v>
+        <v>45322.000000</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.00" customHeight="1">
       <c r="A42" s="1">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="3">
-        <v>34707.000000</v>
+        <v>25588.000000</v>
       </c>
       <c r="D42" s="4">
-        <v>45007.000000</v>
+        <v>41641.000000</v>
       </c>
       <c r="E42" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.00" customHeight="1">
       <c r="A43" s="1">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="3">
-        <v>35086.000000</v>
+        <v>34707.000000</v>
       </c>
       <c r="D43" s="4">
-        <v>45027.000000</v>
+        <v>45007.000000</v>
       </c>
       <c r="E43" s="5">
         <v>9</v>
       </c>
       <c r="F43" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.00" customHeight="1">
       <c r="A44" s="1">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>23903.000000</v>
+        <v>35086.000000</v>
       </c>
       <c r="D44" s="4">
-        <v>45481.000000</v>
+        <v>45027.000000</v>
       </c>
       <c r="E44" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F44" s="6">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.00" customHeight="1">
       <c r="A45" s="1">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>37702.000000</v>
+        <v>23903.000000</v>
       </c>
       <c r="D45" s="4">
-        <v>45436.000000</v>
+        <v>45481.000000</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.00" customHeight="1">
       <c r="A46" s="1">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="3">
-        <v>36317.000000</v>
+        <v>37702.000000</v>
       </c>
       <c r="D46" s="4">
-        <v>45261.000000</v>
+        <v>45436.000000</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
       </c>
       <c r="F46" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.00" customHeight="1">
       <c r="A47" s="1">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="3">
-        <v>24987.000000</v>
+        <v>36317.000000</v>
       </c>
       <c r="D47" s="4">
-        <v>43405.000000</v>
+        <v>45261.000000</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.00" customHeight="1">
       <c r="A48" s="1">
-        <v>372</v>
+        <v>198</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="3">
-        <v>38086.000000</v>
+        <v>24987.000000</v>
       </c>
       <c r="D48" s="4">
-        <v>44910.000000</v>
+        <v>43405.000000</v>
       </c>
       <c r="E48" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F48" s="6">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.00" customHeight="1">
       <c r="A49" s="1">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="3">
-        <v>32913.000000</v>
+        <v>38086.000000</v>
       </c>
       <c r="D49" s="4">
-        <v>43340.000000</v>
+        <v>44910.000000</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F49" s="6">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.00" customHeight="1">
       <c r="A50" s="1">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>33928.000000</v>
+        <v>32913.000000</v>
       </c>
       <c r="D50" s="4">
-        <v>44889.000000</v>
+        <v>43340.000000</v>
       </c>
       <c r="E50" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
